--- a/biology/Histoire de la zoologie et de la botanique/David_Humphreys_Storer/David_Humphreys_Storer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/David_Humphreys_Storer/David_Humphreys_Storer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Humphreys Storer est un naturaliste et un médecin américain, né le 26 mars 1804 à Portland, Maine et mort le 10 septembre 1891 à Boston.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1839 : Report on the fishes, reptiles and birds of Massachusetts[1] (Dutton and Wentworth, State Printers, Boston).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1839 : Report on the fishes, reptiles and birds of Massachusetts (Dutton and Wentworth, State Printers, Boston).
 1839 : A report on the fishes of Massachusetts. Boston Journal of Natural History, 2 (3-4) : 289-570, pl. 6-8.
 1840 : A report on the reptiles of Massachusetts. Boston Journal of Natural History, 3 : 1-64, 1 pl.
-1867 : A History of the Fishes of Massachusetts. Cambridge[2] (Welch &amp; Bigelow; Dakin &amp; Metcalf, Boston) 287 p.</t>
+1867 : A History of the Fishes of Massachusetts. Cambridge (Welch &amp; Bigelow; Dakin &amp; Metcalf, Boston) 287 p.</t>
         </is>
       </c>
     </row>
